--- a/TOYOTA.Web/src/TOYOTA.Web/wwwroot/Template/计划任务模板.xlsx
+++ b/TOYOTA.Web/src/TOYOTA.Web/wwwroot/Template/计划任务模板.xlsx
@@ -14,6 +14,80 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>拜访类型：请填写对应的英文字母。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+A 定期巡查   
+B 临时巡查  
+C 区域会议
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>计划任务Id：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+请与Plans Sheet中的计划任务Id对应。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
@@ -93,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +190,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -442,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,15 +597,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,5 +648,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>